--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>age_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>income_bracket</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>registration_date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_active</t>
         </is>
       </c>
     </row>
@@ -471,17 +496,42 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>45-54</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Books', 'Gaming', 'Fashion', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-06-08</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
@@ -496,17 +546,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Travel', 'Music', 'Books', 'Gaming']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
@@ -521,17 +596,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2023-11-09</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Art', 'Music', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
@@ -546,17 +646,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Cologne</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Music', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
@@ -571,17 +696,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Food &amp; Cooking', 'Gaming', 'Books', 'Fashion', 'Music']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2023-08-30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
@@ -596,17 +746,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Seville</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Technology', 'Home &amp; Garden', 'Art', 'Books', 'Food &amp; Cooking']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
@@ -621,17 +796,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Health &amp; Fitness']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
         </is>
       </c>
     </row>
@@ -646,17 +846,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Gaming', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -671,17 +896,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Sports', 'Gaming', 'Travel', 'Health &amp; Fitness']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -696,17 +946,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Art', 'Food &amp; Cooking', 'Music', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
@@ -721,17 +996,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Food &amp; Cooking', 'Fashion', 'Home &amp; Garden', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
@@ -746,17 +1046,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Brasilia</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Art', 'Gaming']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-01-18</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -771,17 +1096,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Technology', 'Books', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2022-12-06</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
@@ -796,17 +1146,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Gaming', 'Home &amp; Garden', 'Food &amp; Cooking']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -821,17 +1196,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Travel', 'Sports', 'Gaming', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -846,17 +1246,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Books', 'Home &amp; Garden', 'Health &amp; Fitness']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -871,17 +1296,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Music', 'Books', 'Health &amp; Fitness']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2023-12-30</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
@@ -896,17 +1346,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024-07-28</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Fashion', 'Technology', 'Movies', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
@@ -921,17 +1396,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Travel', 'Gaming', 'Books', 'Music', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -946,17 +1446,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>45-54</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Movies', 'Home &amp; Garden', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -971,17 +1496,42 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Cologne</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Movies', 'Fashion', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
@@ -996,17 +1546,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Food &amp; Cooking', 'Fashion', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024-05-10</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1596,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Travel', 'Health &amp; Fitness', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1646,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Gaming', 'Music', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1696,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Travel', 'Art']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1746,42 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Food &amp; Cooking', 'Music', 'Fashion', 'Health &amp; Fitness', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1796,42 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Bilbao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Books', 'Travel', 'Home &amp; Garden', 'Music']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2023-12-13</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1846,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2023-06-17</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Gaming', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1896,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2023-07-11</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Sports', 'Gaming']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1946,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Movies', 'Food &amp; Cooking', 'Music', 'Books']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2022-06-04</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1996,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Movies', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
         </is>
       </c>
     </row>
@@ -1246,17 +2046,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Food &amp; Cooking']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
@@ -1271,17 +2096,42 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Health &amp; Fitness', 'Food &amp; Cooking', 'Travel', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
@@ -1296,17 +2146,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Technology', 'Movies', 'Sports', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2022-11-06</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
@@ -1321,17 +2196,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Art', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1346,17 +2246,42 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Books', 'Gaming', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
@@ -1371,17 +2296,42 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Music', 'Gaming', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2023-12-23</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
@@ -1396,17 +2346,42 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Sapporo</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2023-12-20</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Health &amp; Fitness', 'Fashion', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
@@ -1421,17 +2396,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Travel', 'Gaming', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
@@ -1446,17 +2446,42 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2023-10-20</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Sports', 'Food &amp; Cooking', 'Movies', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2023-05-07</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
@@ -1471,17 +2496,42 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Art', 'Music']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
@@ -1496,17 +2546,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2024-06-29</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
         </is>
       </c>
     </row>
@@ -1521,17 +2596,42 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Seville</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Technology', 'Sports', 'Music', 'Food &amp; Cooking', 'Art']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
@@ -1546,17 +2646,42 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Food &amp; Cooking', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -1571,17 +2696,42 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Seville</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Movies', 'Health &amp; Fitness', 'Home &amp; Garden', 'Food &amp; Cooking', 'Music']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -1596,17 +2746,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>35-44</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Movies', 'Gaming', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1621,17 +2796,42 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>2024-05-24</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Health &amp; Fitness', 'Art', 'Books']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
@@ -1646,17 +2846,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Perth</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>2023-11-15</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Health &amp; Fitness', 'Fashion', 'Gaming', 'Music']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
@@ -1671,17 +2896,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Travel', 'Health &amp; Fitness', 'Movies', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
@@ -1696,17 +2946,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Books', 'Home &amp; Garden', 'Technology', 'Music', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2022-10-16</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
@@ -1721,17 +2996,42 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2023-12-26</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Sports', 'Movies', 'Home &amp; Garden', 'Fashion', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
@@ -1746,17 +3046,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2024-11-18</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['Technology', 'Music', 'Home &amp; Garden', 'Books']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2022-11-13</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
@@ -1771,17 +3096,42 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Brisbane</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['Books', 'Gaming', 'Movies', 'Sports', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
@@ -1796,17 +3146,42 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2024-04-21</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Sports', 'Art']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -1821,17 +3196,42 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2023-04-14</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Art', 'Travel', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
@@ -1846,17 +3246,42 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Technology', 'Travel', 'Home &amp; Garden', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
@@ -1871,17 +3296,42 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-06-15</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['Food &amp; Cooking', 'Sports', 'Music']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
         </is>
       </c>
     </row>
@@ -1896,17 +3346,42 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
@@ -1921,17 +3396,42 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Music', 'Food &amp; Cooking', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
         </is>
       </c>
     </row>
@@ -1946,17 +3446,42 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Gaming', 'Technology', 'Books', 'Art']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
@@ -1971,17 +3496,42 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Adelaide</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Gaming', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
@@ -1996,17 +3546,42 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Gaming', 'Sports', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -2021,17 +3596,42 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>35-44</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['Movies', 'Books']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
@@ -2046,17 +3646,42 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['Art', 'Music', 'Gaming']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
@@ -2071,17 +3696,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Technology', 'Gaming', 'Music']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
@@ -2096,17 +3746,42 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>35-44</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2024-06-09</t>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Technology', 'Fashion', 'Movies', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
         </is>
       </c>
     </row>
@@ -2121,17 +3796,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2023-05-19</t>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Books', 'Movies', 'Food &amp; Cooking']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -2146,17 +3846,42 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Salvador</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-05-29</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Technology', 'Food &amp; Cooking', 'Music', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2023-03-24</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
@@ -2171,17 +3896,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Health &amp; Fitness']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
@@ -2196,17 +3946,42 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>18-24</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2024-01-22</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['Gaming', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
@@ -2221,17 +3996,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
         </is>
       </c>
     </row>
@@ -2246,17 +4046,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Travel', 'Food &amp; Cooking']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
@@ -2271,17 +4096,42 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Movies', 'Food &amp; Cooking', 'Technology', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
@@ -2296,17 +4146,42 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Munich</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['Travel', 'Health &amp; Fitness', 'Sports', 'Gaming']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -2321,17 +4196,42 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Brasilia</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-07-30</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Gaming', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -2346,17 +4246,42 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>18-24</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['Technology', 'Gaming', 'Home &amp; Garden', 'Art']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
         </is>
       </c>
     </row>
@@ -2371,17 +4296,42 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Health &amp; Fitness', 'Music']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
         </is>
       </c>
     </row>
@@ -2396,17 +4346,42 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>18-24</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['Music', 'Movies', 'Art', 'Gaming']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
         </is>
       </c>
     </row>
@@ -2421,17 +4396,42 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2024-04-25</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['Movies', 'Fashion', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -2446,17 +4446,42 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>35-44</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['Technology', 'Health &amp; Fitness', 'Travel', 'Music']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
@@ -2471,17 +4496,42 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-06-24</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['Books', 'Technology', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -2496,17 +4546,42 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['Food &amp; Cooking', 'Gaming', 'Movies', 'Books', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
@@ -2521,17 +4596,42 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2024-04-05</t>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Gaming']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2022-07-30</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
@@ -2546,17 +4646,42 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2023-07-14</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['Music', 'Art']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
@@ -2571,17 +4696,42 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-12-25</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Portuguese</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['Sports', 'Travel', 'Food &amp; Cooking', 'Movies']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -2596,17 +4746,42 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['Gaming', 'Technology', 'Books', 'Art']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
@@ -2621,17 +4796,42 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['Fashion', 'Movies', 'Food &amp; Cooking', 'Music', 'Books']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -2646,17 +4846,42 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2023-06-23</t>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['Sports', 'Music']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -2671,17 +4896,42 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['Art', 'Fashion', 'Home &amp; Garden']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2024-04-26</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -2696,17 +4946,42 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Ottawa</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['Art', 'Food &amp; Cooking', 'Home &amp; Garden', 'Books', 'Music']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
         </is>
       </c>
     </row>
@@ -2721,17 +4996,42 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Calgary</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>65+</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>150k+</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Music']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2746,17 +5046,42 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Japanese</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>75k-100k</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['Music', 'Health &amp; Fitness', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
         </is>
       </c>
     </row>
@@ -2771,17 +5096,42 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>45-54</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2023-12-23</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['Home &amp; Garden', 'Fashion', 'Movies', 'Music', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
@@ -2796,17 +5146,42 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>35-44</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['Food &amp; Cooking', 'Art', 'Technology', 'Books']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
@@ -2821,17 +5196,42 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>100k-150k</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['Art', 'Travel']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
         </is>
       </c>
     </row>
@@ -2846,17 +5246,42 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['Music', 'Travel', 'Health &amp; Fitness', 'Movies', 'Sports']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
@@ -2871,17 +5296,42 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>55+</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0-25k</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['Sports', 'Movies', 'Health &amp; Fitness', 'Fashion']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -2896,17 +5346,42 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>Yokohama</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>50k-75k</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['Music', 'Gaming', 'Books', 'Food &amp; Cooking']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
         </is>
       </c>
     </row>
@@ -2921,17 +5396,42 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Health &amp; Fitness', 'Home &amp; Garden', 'Movies', 'Food &amp; Cooking', 'Books']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
@@ -2946,17 +5446,42 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>Brasilia</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>25k-50k</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['Gaming', 'Health &amp; Fitness', 'Technology']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
